--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fettyathiyatulmaula/Katalon Studio/HIGO/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EF82DF-1A88-4C41-B2DB-92924E123934}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C6D19-D314-264E-BD40-017EFF65D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{5965C149-3111-2B4C-A006-B26DD61B84D0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{5965C149-3111-2B4C-A006-B26DD61B84D0}"/>
   </bookViews>
   <sheets>
     <sheet name="contactUs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="23">
   <si>
     <t>email</t>
   </si>
@@ -99,6 +99,12 @@
   </si>
   <si>
     <t>6256543276482</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -493,14 +499,14 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.33203125" customWidth="1"/>
     <col min="6" max="6" width="35.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -526,6 +532,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -546,6 +555,9 @@
       <c r="A3" t="s">
         <v>13</v>
       </c>
+      <c r="B3" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
@@ -566,6 +578,9 @@
       <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
@@ -586,6 +601,9 @@
       <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D5" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" t="s">
         <v>13</v>
       </c>
@@ -605,6 +623,9 @@
       </c>
       <c r="D6" t="s">
         <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>

--- a/Data Files/Test Data.xlsx
+++ b/Data Files/Test Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fettyathiyatulmaula/Katalon Studio/HIGO/Data Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5C6D19-D314-264E-BD40-017EFF65D9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAEB7910-F7D9-6847-9ED2-25268176500C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{5965C149-3111-2B4C-A006-B26DD61B84D0}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
